--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2463.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2463.xlsx
@@ -354,7 +354,7 @@
         <v>2.493264616119465</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.158255579754502</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2463.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2463.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.107249553850685</v>
+        <v>1.727026462554932</v>
       </c>
       <c r="B1">
-        <v>2.493264616119465</v>
+        <v>2.558655500411987</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.999873876571655</v>
       </c>
       <c r="D1">
-        <v>3.158255579754502</v>
+        <v>2.598408937454224</v>
       </c>
       <c r="E1">
-        <v>0.9460785459058071</v>
+        <v>0.5397922396659851</v>
       </c>
     </row>
   </sheetData>
